--- a/data/trans_orig/P17_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>244641</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>217323</v>
+        <v>218830</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>271137</v>
+        <v>272169</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2379242851964835</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.211356015920063</v>
+        <v>0.2128224195555452</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2636930992398367</v>
+        <v>0.2646970842322696</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>367</v>
@@ -765,19 +765,19 @@
         <v>371415</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>341624</v>
+        <v>340383</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>407724</v>
+        <v>403634</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2826212535932727</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2599524739377861</v>
+        <v>0.2590078246475994</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.310249954935978</v>
+        <v>0.3071377002894926</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>611</v>
@@ -786,19 +786,19 @@
         <v>616056</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>574358</v>
+        <v>573557</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>657459</v>
+        <v>659593</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2630009586708115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2451995637295962</v>
+        <v>0.2448575882551753</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2806763716922493</v>
+        <v>0.2815872556051851</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>783589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>757093</v>
+        <v>756061</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>810907</v>
+        <v>809400</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7620757148035165</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7363069007601633</v>
+        <v>0.7353029157677304</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7886439840799371</v>
+        <v>0.7871775804444548</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>923</v>
@@ -836,19 +836,19 @@
         <v>942765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>906456</v>
+        <v>910546</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>972556</v>
+        <v>973797</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7173787464067273</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6897500450640229</v>
+        <v>0.6928622997105074</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.740047526062214</v>
+        <v>0.7409921753524006</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1714</v>
@@ -857,19 +857,19 @@
         <v>1726354</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1684951</v>
+        <v>1682817</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1768052</v>
+        <v>1768853</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7369990413291885</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7193236283077507</v>
+        <v>0.7184127443948147</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7548004362704038</v>
+        <v>0.7551424117448247</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>367195</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>332861</v>
+        <v>334561</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>404715</v>
+        <v>404848</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2171860760877753</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.196878033970832</v>
+        <v>0.1978839610410667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2393780163160815</v>
+        <v>0.2394566379556357</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>522</v>
@@ -982,19 +982,19 @@
         <v>531647</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>495372</v>
+        <v>493310</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>570379</v>
+        <v>566738</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3350650948809024</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3122031509738505</v>
+        <v>0.3109034547375158</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3594752644107649</v>
+        <v>0.357180462082086</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>879</v>
@@ -1003,19 +1003,19 @@
         <v>898842</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>845164</v>
+        <v>848745</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>949114</v>
+        <v>954120</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2742553459637984</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2578769570703098</v>
+        <v>0.2589695171080085</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2895942126688029</v>
+        <v>0.2911217873695899</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1323499</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1285979</v>
+        <v>1285846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1357833</v>
+        <v>1356133</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7828139239122247</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7606219836839186</v>
+        <v>0.7605433620443643</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8031219660291683</v>
+        <v>0.8021160389589335</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1031</v>
@@ -1053,19 +1053,19 @@
         <v>1055051</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1016319</v>
+        <v>1019960</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1091326</v>
+        <v>1093388</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6649349051190976</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6405247355892348</v>
+        <v>0.642819537917914</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6877968490261493</v>
+        <v>0.6890965452624841</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2320</v>
@@ -1074,19 +1074,19 @@
         <v>2378550</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2328278</v>
+        <v>2323272</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2432228</v>
+        <v>2428647</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7257446540362017</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7104057873311972</v>
+        <v>0.7088782126304102</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7421230429296907</v>
+        <v>0.7410304828919917</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>152687</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132944</v>
+        <v>132374</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>175056</v>
+        <v>175030</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.278520749071933</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2425074229737275</v>
+        <v>0.2414677532951099</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3193249671463435</v>
+        <v>0.3192774052866348</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>134</v>
@@ -1199,19 +1199,19 @@
         <v>139778</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118578</v>
+        <v>120528</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>158252</v>
+        <v>162366</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2933965406284187</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2488978991406659</v>
+        <v>0.2529906874585747</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3321748798969607</v>
+        <v>0.3408102572855891</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>282</v>
@@ -1220,19 +1220,19 @@
         <v>292465</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>265444</v>
+        <v>265315</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>323475</v>
+        <v>321343</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2854374664389315</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.259066100739044</v>
+        <v>0.258939720794941</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3157025236264356</v>
+        <v>0.3136223525289331</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>395520</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>373151</v>
+        <v>373177</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>415263</v>
+        <v>415833</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7214792509280671</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6806750328536565</v>
+        <v>0.680722594713365</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7574925770262725</v>
+        <v>0.7585322467048899</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>318</v>
@@ -1270,19 +1270,19 @@
         <v>336634</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318160</v>
+        <v>314046</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>357834</v>
+        <v>355884</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7066034593715813</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6678251201030393</v>
+        <v>0.6591897427144104</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.751102100859334</v>
+        <v>0.7470093125414252</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>694</v>
@@ -1291,19 +1291,19 @@
         <v>732154</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>701144</v>
+        <v>703276</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>759175</v>
+        <v>759304</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7145625335610685</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6842974763735643</v>
+        <v>0.6863776474710669</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.740933899260956</v>
+        <v>0.7410602792050589</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>764523</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>721727</v>
+        <v>715875</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>817202</v>
+        <v>817496</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2340044288850048</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2209054684831939</v>
+        <v>0.2191141791591646</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2501282406842695</v>
+        <v>0.2502181726111911</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1023</v>
@@ -1416,19 +1416,19 @@
         <v>1042840</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>987748</v>
+        <v>991311</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1097203</v>
+        <v>1096910</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.308780100593371</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2924675709876742</v>
+        <v>0.2935226107439725</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3248768697327278</v>
+        <v>0.324790131369305</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1772</v>
@@ -1437,19 +1437,19 @@
         <v>1807363</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1736591</v>
+        <v>1736810</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1881206</v>
+        <v>1882529</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2720121139120779</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2613607796828196</v>
+        <v>0.2613936706478213</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2831256636917109</v>
+        <v>0.2833248280815198</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2502609</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2449930</v>
+        <v>2449636</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2545405</v>
+        <v>2551257</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7659955711149952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7498717593157305</v>
+        <v>0.7497818273888088</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7790945315168061</v>
+        <v>0.7808858208408354</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2272</v>
@@ -1487,19 +1487,19 @@
         <v>2334449</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2280086</v>
+        <v>2280379</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2389541</v>
+        <v>2385978</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.691219899406629</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6751231302672726</v>
+        <v>0.675209868630695</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7075324290123257</v>
+        <v>0.7064773892560275</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4728</v>
@@ -1508,19 +1508,19 @@
         <v>4837058</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4763215</v>
+        <v>4761892</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4907830</v>
+        <v>4907611</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7279878860879221</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7168743363082891</v>
+        <v>0.7166751719184803</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7386392203171803</v>
+        <v>0.7386063293521786</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>186260</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>162863</v>
+        <v>162219</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>212016</v>
+        <v>209973</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1913143517736143</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1672817734767021</v>
+        <v>0.1666204344090159</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2177685913578323</v>
+        <v>0.2156706033397535</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>309</v>
@@ -1872,19 +1872,19 @@
         <v>332146</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>298799</v>
+        <v>300138</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>366868</v>
+        <v>362334</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2484747076028334</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2235285552671987</v>
+        <v>0.2245303501722616</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2744500290224837</v>
+        <v>0.2710585882560502</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>481</v>
@@ -1893,19 +1893,19 @@
         <v>518406</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>474792</v>
+        <v>481889</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>561629</v>
+        <v>562063</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2243869882489057</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2055089209215943</v>
+        <v>0.2085810268750992</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2430956995994008</v>
+        <v>0.2432832302960646</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>787323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>761567</v>
+        <v>763610</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>810720</v>
+        <v>811364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8086856482263857</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7822314086421677</v>
+        <v>0.7843293966602464</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.832718226523298</v>
+        <v>0.8333795655909841</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>937</v>
@@ -1943,19 +1943,19 @@
         <v>1004592</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>969870</v>
+        <v>974404</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1037939</v>
+        <v>1036600</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7515252923971666</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7255499709775162</v>
+        <v>0.7289414117439499</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7764714447328011</v>
+        <v>0.7754696498277386</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1672</v>
@@ -1964,19 +1964,19 @@
         <v>1791916</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1748693</v>
+        <v>1748259</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1835530</v>
+        <v>1828433</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7756130117510943</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7569043004005994</v>
+        <v>0.7567167697039354</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7944910790784057</v>
+        <v>0.7914189731249008</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>533922</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>492540</v>
+        <v>496176</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>576265</v>
+        <v>576292</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2720044721901335</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2509225781016632</v>
+        <v>0.2527750395104724</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2935758565413567</v>
+        <v>0.2935895750966634</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>629</v>
@@ -2089,19 +2089,19 @@
         <v>674659</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>638132</v>
+        <v>631527</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>716171</v>
+        <v>714451</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3838079258394058</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3630283795687155</v>
+        <v>0.3592707430812348</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4074240795607127</v>
+        <v>0.4064456684095785</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1136</v>
@@ -2110,19 +2110,19 @@
         <v>1208581</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1150025</v>
+        <v>1149499</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1269725</v>
+        <v>1266928</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3248244781614062</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3090868593269061</v>
+        <v>0.308945461635001</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3412578439184841</v>
+        <v>0.3405061243635533</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1428994</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1386651</v>
+        <v>1386624</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1470376</v>
+        <v>1466740</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7279955278098665</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7064241434586435</v>
+        <v>0.7064104249033364</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7490774218983368</v>
+        <v>0.7472249604895274</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1006</v>
@@ -2160,19 +2160,19 @@
         <v>1083144</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1041632</v>
+        <v>1043352</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1119671</v>
+        <v>1126276</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6161920741605943</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5925759204392871</v>
+        <v>0.5935543315904213</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6369716204312844</v>
+        <v>0.6407292569187653</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2354</v>
@@ -2181,19 +2181,19 @@
         <v>2512138</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2450994</v>
+        <v>2453791</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2570694</v>
+        <v>2571220</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6751755218385939</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.658742156081516</v>
+        <v>0.6594938756364468</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6909131406730942</v>
+        <v>0.6910545383649991</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>145901</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>124375</v>
+        <v>125846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168354</v>
+        <v>169540</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3032151063170092</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.258478753226845</v>
+        <v>0.2615365461445375</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3498764293187058</v>
+        <v>0.3523408322824602</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>151</v>
@@ -2306,19 +2306,19 @@
         <v>166191</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>145366</v>
+        <v>145038</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>189017</v>
+        <v>187639</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3640478085445178</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3184300711521409</v>
+        <v>0.3177112065097564</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4140480530376013</v>
+        <v>0.4110304883204366</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>284</v>
@@ -2327,19 +2327,19 @@
         <v>312093</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>283839</v>
+        <v>280684</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>341637</v>
+        <v>342402</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3328311485682314</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3026994586841068</v>
+        <v>0.2993356587312089</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3643387712314407</v>
+        <v>0.3651547135164704</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>335280</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312827</v>
+        <v>311641</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>356806</v>
+        <v>355335</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6967848936829908</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6501235706812943</v>
+        <v>0.64765916771754</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7415212467731556</v>
+        <v>0.7384634538554624</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>259</v>
@@ -2377,19 +2377,19 @@
         <v>290318</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>267492</v>
+        <v>268870</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>311143</v>
+        <v>311471</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6359521914554822</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5859519469623987</v>
+        <v>0.5889695116795634</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6815699288478591</v>
+        <v>0.6822887934902436</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>564</v>
@@ -2398,19 +2398,19 @@
         <v>625598</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>596054</v>
+        <v>595289</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653852</v>
+        <v>657007</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6671688514317686</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6356612287685595</v>
+        <v>0.6348452864835297</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6973005413158933</v>
+        <v>0.7006643412687918</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>866084</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>814173</v>
+        <v>817705</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>924224</v>
+        <v>917224</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2534127474269837</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2382237833744198</v>
+        <v>0.2392571281194291</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2704243396454997</v>
+        <v>0.2683762549626771</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1089</v>
@@ -2523,19 +2523,19 @@
         <v>1172995</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1111416</v>
+        <v>1113601</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1227813</v>
+        <v>1232699</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.330323532864949</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.312982235787938</v>
+        <v>0.3135975338654044</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3457605688115694</v>
+        <v>0.347136522837621</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1901</v>
@@ -2544,19 +2544,19 @@
         <v>2039079</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1964506</v>
+        <v>1957318</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2125857</v>
+        <v>2111345</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2926041044151795</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2819029430391937</v>
+        <v>0.2808715646079272</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3050565632021634</v>
+        <v>0.3029740318890813</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2551597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2493457</v>
+        <v>2500457</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2603508</v>
+        <v>2599976</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7465872525730163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7295756603545006</v>
+        <v>0.7316237450373231</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7617762166255803</v>
+        <v>0.760742871880571</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2202</v>
@@ -2594,19 +2594,19 @@
         <v>2378055</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2323237</v>
+        <v>2318351</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2439634</v>
+        <v>2437449</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.669676467135051</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6542394311884311</v>
+        <v>0.6528634771623791</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6870177642120623</v>
+        <v>0.6864024661345959</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4590</v>
@@ -2615,19 +2615,19 @@
         <v>4929652</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4842874</v>
+        <v>4857386</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5004225</v>
+        <v>5011413</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7073958955848204</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6949434367978367</v>
+        <v>0.6970259681109185</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7180970569608064</v>
+        <v>0.7191284353920727</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>106402</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87624</v>
+        <v>90300</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>126759</v>
+        <v>127060</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1414661342882421</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1165003311155614</v>
+        <v>0.1200570914325381</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1685312703599657</v>
+        <v>0.1689319900181103</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>154</v>
@@ -2979,19 +2979,19 @@
         <v>169264</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>144030</v>
+        <v>144786</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>194913</v>
+        <v>194362</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1704894963739275</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1450732869812474</v>
+        <v>0.1458348527359442</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1963250726126825</v>
+        <v>0.1957693614224595</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>261</v>
@@ -3000,19 +3000,19 @@
         <v>275666</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>246250</v>
+        <v>243697</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>308726</v>
+        <v>306670</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1579793354177838</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1411214464506111</v>
+        <v>0.1396586330478902</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1769256115100314</v>
+        <v>0.1757474852629082</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>645737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>625380</v>
+        <v>625079</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>664515</v>
+        <v>661839</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8585338657117579</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8314687296400343</v>
+        <v>0.8310680099818896</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8834996688844385</v>
+        <v>0.8799429085674619</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>736</v>
@@ -3050,19 +3050,19 @@
         <v>823546</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>797897</v>
+        <v>798448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>848780</v>
+        <v>848024</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8295105036260725</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8036749273873175</v>
+        <v>0.8042306385775405</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8549267130187528</v>
+        <v>0.8541651472640553</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1389</v>
@@ -3071,19 +3071,19 @@
         <v>1469283</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1436223</v>
+        <v>1438279</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1498699</v>
+        <v>1501252</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8420206645822161</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8230743884899689</v>
+        <v>0.8242525147370918</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8588785535493889</v>
+        <v>0.8603413669521103</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>402969</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>369110</v>
+        <v>370574</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>438682</v>
+        <v>443580</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1944924075705352</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.178150529297436</v>
+        <v>0.1788573564057573</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2117295220093897</v>
+        <v>0.2140934638857666</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>462</v>
@@ -3196,19 +3196,19 @@
         <v>475468</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>438204</v>
+        <v>438728</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>511935</v>
+        <v>513250</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2402522145521596</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2214226465506839</v>
+        <v>0.2216876332906627</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.25867866122418</v>
+        <v>0.2593434260687817</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>838</v>
@@ -3217,19 +3217,19 @@
         <v>878437</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>831549</v>
+        <v>829090</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>936255</v>
+        <v>937260</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2168478266636022</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2052732272765536</v>
+        <v>0.2046661754855873</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2311207095493321</v>
+        <v>0.2313687675177148</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1668930</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1633217</v>
+        <v>1628319</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1702789</v>
+        <v>1701325</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8055075924294648</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7882704779906102</v>
+        <v>0.7859065361142337</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8218494707025638</v>
+        <v>0.8211426435942428</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1437</v>
@@ -3267,19 +3267,19 @@
         <v>1503569</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1467102</v>
+        <v>1465787</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1540833</v>
+        <v>1540309</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7597477854478404</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7413213387758198</v>
+        <v>0.7406565739312182</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7785773534493161</v>
+        <v>0.7783123667093372</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3009</v>
@@ -3288,19 +3288,19 @@
         <v>3172499</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3114681</v>
+        <v>3113676</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3219387</v>
+        <v>3221846</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7831521733363977</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7688792904506678</v>
+        <v>0.7686312324822853</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7947267727234466</v>
+        <v>0.7953338245144127</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>105463</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89119</v>
+        <v>87607</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>127312</v>
+        <v>126362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1935969995498587</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1635948358732993</v>
+        <v>0.160818906139591</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2337061210131978</v>
+        <v>0.23196093552312</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>158</v>
@@ -3413,19 +3413,19 @@
         <v>166737</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>144364</v>
+        <v>147465</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>191176</v>
+        <v>190558</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.304189124039041</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2633728695348254</v>
+        <v>0.2690312479336923</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3487757008597586</v>
+        <v>0.3476476002676231</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>254</v>
@@ -3434,19 +3434,19 @@
         <v>272199</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>244662</v>
+        <v>244802</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>302788</v>
+        <v>303682</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2490641030431822</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2238667431027773</v>
+        <v>0.2239957233041198</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2770526530277127</v>
+        <v>0.2778708909684766</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>439291</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>417442</v>
+        <v>418392</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>455635</v>
+        <v>457147</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8064030004501412</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7662938789868025</v>
+        <v>0.7680390644768801</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8364051641267007</v>
+        <v>0.8391810938604091</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>367</v>
@@ -3484,19 +3484,19 @@
         <v>381398</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>356959</v>
+        <v>357577</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>403771</v>
+        <v>400670</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.695810875960959</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6512242991402413</v>
+        <v>0.6523523997323769</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7366271304651744</v>
+        <v>0.7309687520663076</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>770</v>
@@ -3505,19 +3505,19 @@
         <v>820690</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>790101</v>
+        <v>789207</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>848227</v>
+        <v>848087</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7509358969568178</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7229473469722874</v>
+        <v>0.7221291090315234</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7761332568972227</v>
+        <v>0.7760042766958802</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>614833</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>568655</v>
+        <v>571279</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>660363</v>
+        <v>661743</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1825086162840952</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1688007927870037</v>
+        <v>0.1695797420700429</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1960236987176217</v>
+        <v>0.1964334308600455</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>774</v>
@@ -3630,19 +3630,19 @@
         <v>811469</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>762075</v>
+        <v>765559</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>861784</v>
+        <v>864608</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2305319605849664</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2164996349398161</v>
+        <v>0.2174894359677146</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2448260518291508</v>
+        <v>0.2456284726208085</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1353</v>
@@ -3651,19 +3651,19 @@
         <v>1426302</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1353212</v>
+        <v>1357390</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1495079</v>
+        <v>1492625</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2070472837703156</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1964372656848985</v>
+        <v>0.1970437125086612</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2170312559890768</v>
+        <v>0.2166749849769636</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2753958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2708428</v>
+        <v>2707048</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2800136</v>
+        <v>2797512</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8174913837159048</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8039763012823782</v>
+        <v>0.8035665691399544</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8311992072129962</v>
+        <v>0.8304202579299571</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2540</v>
@@ -3701,19 +3701,19 @@
         <v>2708514</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2658199</v>
+        <v>2655375</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2757908</v>
+        <v>2754424</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7694680394150336</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7551739481708493</v>
+        <v>0.7543715273791916</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7835003650601845</v>
+        <v>0.7825105640322852</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5168</v>
@@ -3722,19 +3722,19 @@
         <v>5462472</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5393695</v>
+        <v>5396149</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5535562</v>
+        <v>5531384</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7929527162296844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7829687440109233</v>
+        <v>0.7833250150230365</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8035627343151017</v>
+        <v>0.8029562874913396</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>61507</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47937</v>
+        <v>47062</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77606</v>
+        <v>75563</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.10704014480559</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08342436681658627</v>
+        <v>0.08190112790141628</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1350561763978748</v>
+        <v>0.1315006316493791</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -4086,19 +4086,19 @@
         <v>75082</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63041</v>
+        <v>62016</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89146</v>
+        <v>88268</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09156847149783016</v>
+        <v>0.09156847149783018</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07688418471911937</v>
+        <v>0.07563332979579063</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1087209939566623</v>
+        <v>0.1076506592205894</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>188</v>
@@ -4107,19 +4107,19 @@
         <v>136589</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>117780</v>
+        <v>118543</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>156209</v>
+        <v>158246</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09794342308794771</v>
+        <v>0.09794342308794772</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08445605231044735</v>
+        <v>0.08500290362068241</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1120122303370356</v>
+        <v>0.1134731190169914</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>513113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>497014</v>
+        <v>499057</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>526683</v>
+        <v>527558</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8929598551944099</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8649438236021253</v>
+        <v>0.868499368350621</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9165756331834137</v>
+        <v>0.9180988720985838</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1304</v>
@@ -4157,19 +4157,19 @@
         <v>744870</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>730806</v>
+        <v>731684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>756911</v>
+        <v>757936</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9084315285021697</v>
+        <v>0.9084315285021698</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8912790060433379</v>
+        <v>0.8923493407794104</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9231158152808807</v>
+        <v>0.9243666702042094</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1924</v>
@@ -4178,19 +4178,19 @@
         <v>1257983</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1238363</v>
+        <v>1236326</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1276792</v>
+        <v>1276029</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9020565769120523</v>
+        <v>0.9020565769120522</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8879877696629644</v>
+        <v>0.8865268809830087</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9155439476895529</v>
+        <v>0.9149970963793178</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>314486</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>275685</v>
+        <v>279562</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>357725</v>
+        <v>354914</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1413305586510867</v>
+        <v>0.1413305586510868</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1238932828503912</v>
+        <v>0.1256356011407367</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1607622187065657</v>
+        <v>0.1594987415419847</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>624</v>
@@ -4303,19 +4303,19 @@
         <v>498526</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>461349</v>
+        <v>463830</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>535653</v>
+        <v>537176</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2301746104599103</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2130098585323825</v>
+        <v>0.2141555307936073</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.247316825304325</v>
+        <v>0.2480198620272002</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>882</v>
@@ -4324,19 +4324,19 @@
         <v>813012</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>762886</v>
+        <v>762421</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>874046</v>
+        <v>865278</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1851524196614992</v>
+        <v>0.1851524196614993</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.173737081402451</v>
+        <v>0.1736310371786863</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1990520633369329</v>
+        <v>0.1970554419286016</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1910697</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1867458</v>
+        <v>1870269</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1949498</v>
+        <v>1945621</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8586694413489131</v>
+        <v>0.8586694413489134</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8392377812934341</v>
+        <v>0.8405012584580152</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8761067171496089</v>
+        <v>0.8743643988592633</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2290</v>
@@ -4374,19 +4374,19 @@
         <v>1667332</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1630205</v>
+        <v>1628682</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1704509</v>
+        <v>1702028</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7698253895400896</v>
+        <v>0.7698253895400897</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7526831746956751</v>
+        <v>0.7519801379728001</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7869901414676177</v>
+        <v>0.7858444692063929</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4019</v>
@@ -4395,19 +4395,19 @@
         <v>3578028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3516994</v>
+        <v>3525762</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3628154</v>
+        <v>3628619</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8148475803385008</v>
+        <v>0.8148475803385009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8009479366630675</v>
+        <v>0.8029445580713986</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8262629185975491</v>
+        <v>0.8263689628213139</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>143473</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120852</v>
+        <v>118904</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>170769</v>
+        <v>168662</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2022889833289736</v>
+        <v>0.2022889833289735</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1703953887980334</v>
+        <v>0.1676487181578307</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2407752810827929</v>
+        <v>0.2378040110570253</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>225</v>
@@ -4520,19 +4520,19 @@
         <v>175660</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>154451</v>
+        <v>156730</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>197232</v>
+        <v>197346</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2398725291299952</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2109095906558148</v>
+        <v>0.2140222234660189</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2693296031698728</v>
+        <v>0.2694859467168738</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>342</v>
@@ -4541,19 +4541,19 @@
         <v>319133</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>286037</v>
+        <v>288177</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>354246</v>
+        <v>353989</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2213813668829699</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1984230499658491</v>
+        <v>0.1999073745591977</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.245739002305142</v>
+        <v>0.2455606020129747</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>565773</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>538477</v>
+        <v>540584</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>588394</v>
+        <v>590342</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7977110166710265</v>
+        <v>0.7977110166710263</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7592247189172072</v>
+        <v>0.7621959889429747</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8296046112019667</v>
+        <v>0.8323512818421692</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>775</v>
@@ -4591,19 +4591,19 @@
         <v>556647</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>535075</v>
+        <v>534961</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>577856</v>
+        <v>575577</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7601274708700049</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7306703968301272</v>
+        <v>0.7305140532831261</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7890904093441851</v>
+        <v>0.785977776533981</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1337</v>
@@ -4612,19 +4612,19 @@
         <v>1122420</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1087307</v>
+        <v>1087564</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1155516</v>
+        <v>1153376</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7786186331170302</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7542609976948578</v>
+        <v>0.7544393979870253</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8015769500341506</v>
+        <v>0.8000926254408024</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>519466</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>471060</v>
+        <v>472178</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>570893</v>
+        <v>568207</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1480362489027583</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1342413773698012</v>
+        <v>0.1345600876486902</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1626917970114112</v>
+        <v>0.1619263285768028</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>969</v>
@@ -4737,19 +4737,19 @@
         <v>749267</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>707006</v>
+        <v>705016</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>793467</v>
+        <v>791396</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2015180195550108</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1901517682357725</v>
+        <v>0.1896164892453477</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2134056230354067</v>
+        <v>0.2128487515330656</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1412</v>
@@ -4758,19 +4758,19 @@
         <v>1268734</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1196642</v>
+        <v>1202636</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1329749</v>
+        <v>1330983</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1755506952325337</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1655755365096546</v>
+        <v>0.1664049981612622</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1839932166863415</v>
+        <v>0.184163932749333</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2989583</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2938156</v>
+        <v>2940842</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3037989</v>
+        <v>3036871</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8519637510972417</v>
+        <v>0.8519637510972418</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8373082029885885</v>
+        <v>0.8380736714231971</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8657586226301989</v>
+        <v>0.86543991235131</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4369</v>
@@ -4808,19 +4808,19 @@
         <v>2968849</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2924649</v>
+        <v>2926720</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3011110</v>
+        <v>3013100</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7984819804449891</v>
+        <v>0.7984819804449892</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7865943769645934</v>
+        <v>0.7871512484669346</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8098482317642278</v>
+        <v>0.8103835107546524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7280</v>
@@ -4829,19 +4829,19 @@
         <v>5958431</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5897416</v>
+        <v>5896182</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6030523</v>
+        <v>6024529</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.824449304767466</v>
+        <v>0.8244493047674664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8160067833136585</v>
+        <v>0.8158360672506669</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8344244634903453</v>
+        <v>0.8335950018387378</v>
       </c>
     </row>
     <row r="15">
